--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatI.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatI.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="84" windowWidth="14340" windowHeight="4452" activeTab="2"/>
+    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="63">
   <si>
     <t>TC</t>
   </si>
@@ -203,12 +208,15 @@
   </si>
   <si>
     <t>FourWeekly_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -296,6 +304,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -343,7 +354,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -376,9 +387,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -411,6 +439,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -586,22 +631,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="48.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,7 +660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -629,7 +674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -643,7 +688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -657,7 +702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -671,7 +716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -685,7 +730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -706,25 +751,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.77734375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -747,7 +792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
@@ -764,7 +809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
@@ -781,7 +826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
@@ -798,7 +843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
@@ -815,7 +860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
@@ -832,7 +877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
@@ -849,7 +894,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
@@ -866,7 +911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
@@ -883,7 +928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
@@ -900,7 +945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>28</v>
       </c>
@@ -917,7 +962,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
@@ -934,7 +979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>30</v>
       </c>
@@ -951,7 +996,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>31</v>
       </c>
@@ -968,7 +1013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
@@ -985,7 +1030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>33</v>
       </c>
@@ -1002,7 +1047,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>34</v>
       </c>
@@ -1026,28 +1071,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="13" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="32" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="45.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="52.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="45.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="52.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>42</v>
       </c>
@@ -1088,7 +1133,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>51</v>
       </c>
@@ -1123,7 +1168,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>51</v>
       </c>
@@ -1159,7 +1204,7 @@
       </c>
       <c r="L3" s="10"/>
     </row>
-    <row r="4" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>51</v>
       </c>
@@ -1195,7 +1240,7 @@
       </c>
       <c r="L4" s="10"/>
     </row>
-    <row r="5" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>51</v>
       </c>
@@ -1231,7 +1276,7 @@
       </c>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>51</v>
       </c>
@@ -1267,7 +1312,7 @@
       </c>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>51</v>
       </c>
@@ -1303,7 +1348,7 @@
       </c>
       <c r="L7" s="10"/>
     </row>
-    <row r="8" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>51</v>
       </c>
@@ -1339,7 +1384,7 @@
       </c>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:13" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>51</v>
       </c>
@@ -1374,7 +1419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>51</v>
       </c>
@@ -1409,7 +1454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>51</v>
       </c>
@@ -1444,7 +1489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>51</v>
       </c>
@@ -1479,7 +1524,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>51</v>
       </c>
@@ -1514,7 +1559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>51</v>
       </c>
@@ -1549,7 +1594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>51</v>
       </c>
@@ -1584,7 +1629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>51</v>
       </c>
@@ -1619,7 +1664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>51</v>
       </c>
@@ -1656,22 +1701,22 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E4" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E5" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E6" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E7" r:id="rId6" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E8" r:id="rId7" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E9" r:id="rId8" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E10" r:id="rId9" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E11" r:id="rId10" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E12" r:id="rId11" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E13" r:id="rId12" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E14" r:id="rId13" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E15" r:id="rId14" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E16" r:id="rId15" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E17" r:id="rId16" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="E6" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="E7" r:id="rId6" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="E8" r:id="rId7" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="E9" r:id="rId8" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="E10" r:id="rId9" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="E11" r:id="rId10" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="E12" r:id="rId11" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="E13" r:id="rId12" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="E14" r:id="rId13" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="E15" r:id="rId14" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="E16" r:id="rId15" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="E17" r:id="rId16" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId17"/>
@@ -1679,29 +1724,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="50.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="47.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="50.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>42</v>
       </c>
@@ -1745,7 +1790,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>51</v>
       </c>
@@ -1768,7 +1813,7 @@
         <v>53</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>59</v>
@@ -1785,7 +1830,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatI.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatI.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="62">
   <si>
     <t>TC</t>
   </si>
@@ -186,9 +186,6 @@
     <t>DO NOT TOUCH - PAYROLL AUTOMATION CHECK</t>
   </si>
   <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -210,13 +207,13 @@
     <t>FourWeekly_Payroll</t>
   </si>
   <si>
-    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201516\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -631,7 +628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -751,7 +748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1071,11 +1068,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,7 +1138,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>38</v>
@@ -1150,25 +1147,25 @@
         <v>52</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="K2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>51</v>
       </c>
@@ -1176,7 +1173,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>38</v>
@@ -1185,19 +1182,19 @@
         <v>52</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>6</v>
@@ -1212,7 +1209,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>38</v>
@@ -1221,26 +1218,26 @@
         <v>52</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="K4" s="10" t="s">
         <v>6</v>
       </c>
       <c r="L4" s="10"/>
     </row>
-    <row r="5" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>51</v>
       </c>
@@ -1248,7 +1245,7 @@
         <v>22</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>38</v>
@@ -1257,26 +1254,26 @@
         <v>52</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="K5" s="10" t="s">
         <v>6</v>
       </c>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>51</v>
       </c>
@@ -1284,7 +1281,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>38</v>
@@ -1293,26 +1290,26 @@
         <v>52</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="K6" s="10" t="s">
         <v>6</v>
       </c>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>51</v>
       </c>
@@ -1320,7 +1317,7 @@
         <v>24</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>38</v>
@@ -1329,26 +1326,26 @@
         <v>52</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="K7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="L7" s="10"/>
     </row>
-    <row r="8" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>51</v>
       </c>
@@ -1356,7 +1353,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>38</v>
@@ -1365,19 +1362,19 @@
         <v>52</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>6</v>
@@ -1392,7 +1389,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>38</v>
@@ -1401,19 +1398,19 @@
         <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>6</v>
@@ -1427,7 +1424,7 @@
         <v>27</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>38</v>
@@ -1436,19 +1433,19 @@
         <v>52</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>6</v>
@@ -1462,7 +1459,7 @@
         <v>28</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>38</v>
@@ -1471,19 +1468,19 @@
         <v>52</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>6</v>
@@ -1497,7 +1494,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>38</v>
@@ -1506,19 +1503,19 @@
         <v>52</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>6</v>
@@ -1532,7 +1529,7 @@
         <v>30</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>38</v>
@@ -1541,19 +1538,19 @@
         <v>52</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>6</v>
@@ -1567,7 +1564,7 @@
         <v>31</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>38</v>
@@ -1576,19 +1573,19 @@
         <v>52</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>6</v>
@@ -1602,7 +1599,7 @@
         <v>32</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>38</v>
@@ -1611,19 +1608,19 @@
         <v>52</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="J15" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>6</v>
@@ -1637,7 +1634,7 @@
         <v>33</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>38</v>
@@ -1646,19 +1643,19 @@
         <v>52</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>6</v>
@@ -1672,7 +1669,7 @@
         <v>34</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>38</v>
@@ -1681,19 +1678,19 @@
         <v>52</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="K17" s="10" t="s">
         <v>6</v>
@@ -1701,22 +1698,22 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="E4" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="E5" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="E6" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="E7" r:id="rId6" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="E8" r:id="rId7" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="E9" r:id="rId8" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="E10" r:id="rId9" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="E11" r:id="rId10" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="E12" r:id="rId11" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="E13" r:id="rId12" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="E14" r:id="rId13" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="E15" r:id="rId14" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="E16" r:id="rId15" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="E17" r:id="rId16" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E3" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E4" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E5" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E6" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E7" r:id="rId6" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E8" r:id="rId7" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E9" r:id="rId8" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E10" r:id="rId9" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E11" r:id="rId10" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E12" r:id="rId11" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E13" r:id="rId12" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E14" r:id="rId13" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E15" r:id="rId14" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E16" r:id="rId15" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E17" r:id="rId16" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId17"/>
@@ -1724,10 +1721,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1778,7 +1775,7 @@
         <v>50</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>2</v>
@@ -1798,7 +1795,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>38</v>
@@ -1807,22 +1804,22 @@
         <v>52</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>6</v>
@@ -1830,7 +1827,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
